--- a/Engineering/Showroom Hookup.xlsx
+++ b/Engineering/Showroom Hookup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-27280" yWindow="5240" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51220" windowHeight="28360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Area</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Theater blu-ray</t>
+  </si>
+  <si>
+    <t>MMS</t>
+  </si>
+  <si>
+    <t>Integra Tuner</t>
   </si>
 </sst>
 </file>
@@ -674,10 +680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -725,127 +731,149 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Engineering/Showroom Hookup.xlsx
+++ b/Engineering/Showroom Hookup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51220" windowHeight="28360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Area</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Integra Tuner</t>
+  </si>
+  <si>
+    <t>MMS Player-A</t>
   </si>
 </sst>
 </file>
@@ -161,8 +164,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -172,9 +177,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,10 +687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -736,143 +743,151 @@
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -881,6 +896,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Engineering/Showroom Hookup.xlsx
+++ b/Engineering/Showroom Hookup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Area</t>
   </si>
@@ -34,24 +34,9 @@
     <t>Theater</t>
   </si>
   <si>
-    <t>Island 1</t>
-  </si>
-  <si>
     <t>Island 2</t>
   </si>
   <si>
-    <t>84" LG</t>
-  </si>
-  <si>
-    <t>Video Wall</t>
-  </si>
-  <si>
-    <t>Peach Tree audio</t>
-  </si>
-  <si>
-    <t>V15</t>
-  </si>
-  <si>
     <t>Marks Office</t>
   </si>
   <si>
@@ -116,6 +101,24 @@
   </si>
   <si>
     <t>MMS Player-A</t>
+  </si>
+  <si>
+    <t>Islands 1&amp;2</t>
+  </si>
+  <si>
+    <t>4K Demo (84" LG)</t>
+  </si>
+  <si>
+    <t>Touch Panel Wall (V15)</t>
+  </si>
+  <si>
+    <t>Peach Tree Audio</t>
+  </si>
+  <si>
+    <t>Front Lobby</t>
+  </si>
+  <si>
+    <t>Video Wall (iPad)</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -532,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -551,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -579,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -590,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -601,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -615,10 +618,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -629,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -640,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -648,26 +651,37 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
         <v>2</v>
       </c>
     </row>
@@ -689,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -705,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -719,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -730,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -741,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -749,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -763,7 +777,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -777,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -791,7 +805,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -805,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
@@ -819,7 +833,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -833,7 +847,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -847,7 +861,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
@@ -858,7 +872,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -869,7 +883,7 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -877,7 +891,7 @@
         <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <v>9</v>
@@ -888,7 +902,7 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Engineering/Showroom Hookup.xlsx
+++ b/Engineering/Showroom Hookup.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="-27740" yWindow="5240" windowWidth="27740" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Areas" sheetId="1" r:id="rId1"/>
     <sheet name="Sources" sheetId="2" r:id="rId2"/>
+    <sheet name="Hardware" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Area</t>
   </si>
@@ -109,9 +110,6 @@
     <t>4K Demo (84" LG)</t>
   </si>
   <si>
-    <t>Touch Panel Wall (V15)</t>
-  </si>
-  <si>
     <t>Peach Tree Audio</t>
   </si>
   <si>
@@ -119,6 +117,129 @@
   </si>
   <si>
     <t>Video Wall (iPad)</t>
+  </si>
+  <si>
+    <t>UI-</t>
+  </si>
+  <si>
+    <t>RTI</t>
+  </si>
+  <si>
+    <t>DGE2</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>iPad</t>
+  </si>
+  <si>
+    <t>XPANEL</t>
+  </si>
+  <si>
+    <t>Touch Panel Wall</t>
+  </si>
+  <si>
+    <t>DGE2 - V15</t>
+  </si>
+  <si>
+    <t>TSW750</t>
+  </si>
+  <si>
+    <t>TSW1050</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>PRO3</t>
+  </si>
+  <si>
+    <t>192.168.112.99</t>
+  </si>
+  <si>
+    <t>PRO3-336BFF</t>
+  </si>
+  <si>
+    <t>192.168.112.89</t>
+  </si>
+  <si>
+    <t>VPG-15</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>VPG-15-17DDD2</t>
+  </si>
+  <si>
+    <t>TSW-750</t>
+  </si>
+  <si>
+    <t>TSW-1050</t>
+  </si>
+  <si>
+    <t>CEN-TRACK</t>
+  </si>
+  <si>
+    <t>192.168.112.98</t>
+  </si>
+  <si>
+    <t>CEN-TRACK-099D6D</t>
+  </si>
+  <si>
+    <t>TSW-75-2A14F0</t>
+  </si>
+  <si>
+    <t>00:10:7f:33:6b:ff</t>
+  </si>
+  <si>
+    <t>DGE2-1E633C</t>
+  </si>
+  <si>
+    <t>00:10:7f:1e:63:3c</t>
+  </si>
+  <si>
+    <t>00:10:7f:2a:14:f0</t>
+  </si>
+  <si>
+    <t>00:10:7f:17:dd:d2</t>
+  </si>
+  <si>
+    <t>TSW-1050-334B74</t>
+  </si>
+  <si>
+    <t>00:10:7f:33:4b:74</t>
+  </si>
+  <si>
+    <t>00:01:7f:09:9d:6d</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -167,8 +288,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -180,11 +305,15 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -525,9 +654,10 @@
     <col min="1" max="1" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -540,16 +670,28 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -562,8 +704,14 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -576,8 +724,11 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -587,10 +738,16 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -599,12 +756,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -612,76 +769,143 @@
       <c r="D7" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
     </row>
@@ -917,4 +1141,113 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>